--- a/medicine/Enfance/E._Lockhart/E._Lockhart.xlsx
+++ b/medicine/Enfance/E._Lockhart/E._Lockhart.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Emily Jenkins est née le 13 septembre 1967 à New York. Elle utilise souvent comme nom de plume : E. Lockhart. Elle est écrivaine américaine de livres pour enfants, romans pour adolescents ou encore fictions pour adultes. Elle a grandi à Cambridge (Massachusetts) et à Seattle et a étudié l'anglais au Vassar College. Emily a eu ensuite son doctorat en littérature anglaise. Elle vit actuellement dans la région de New York.
 Jenkins écrit sous le nom de Lockhart pour le marché des adolescents, reprenant le nom de sa grand-mère. Son premier roman a été The Boyfriend List publié en 2004.
@@ -514,18 +526,91 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Livres pour enfants
-Invisible Inkling, 2011
-Skunkdog, 2008
-Livres pour adolescents
-Dramarama, 2007
+          <t>Livres pour enfants</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Invisible Inkling, 2011
+Skunkdog, 2008</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>E._Lockhart</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/E._Lockhart</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Livres pour adolescents</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Dramarama, 2007
 The Disreputable History of Frankie Landau-Banks (Alabaster &amp; moi), 2008
 We Were Liars (Nous les menteurs), 2014
 Genuine Fraud (Trouble Vérité), 2017
 Again Again (encore encore), 2020
-Family of Liars (Famille de menteurs), 2022
-Livres pour adultes
-Tongue First: Adventures in Physical Culture, 1998
+Family of Liars (Famille de menteurs), 2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>E._Lockhart</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/E._Lockhart</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Livres pour adultes</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Tongue First: Adventures in Physical Culture, 1998
 Mister Posterior and the Genius Child, 2002</t>
         </is>
       </c>
